--- a/data/trans_dic/P23_6_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_6_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,4%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,86%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 11,4</t>
+          <t>3,02; 12,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,21</t>
+          <t>3,63; 10,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,74</t>
+          <t>4,55; 10,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,98</t>
+          <t>1,75; 9,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 13,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 13,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,26</t>
+          <t>5,36; 14,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,9; 20,6</t>
+          <t>6,96; 14,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,63</t>
+          <t>5,87; 12,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,8</t>
+          <t>16,49; 30,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,98; 17,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 11,1</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 11,7</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 10,01</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>10,53; 19,89</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,42 +905,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +950,47 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,42</t>
+          <t>4,43; 9,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,06</t>
+          <t>2,76; 9,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,56</t>
+          <t>3,05; 6,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,93</t>
+          <t>7,53; 20,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,68</t>
+          <t>5,77; 13,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,21</t>
+          <t>4,72; 9,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,16</t>
+          <t>5,53; 9,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,22</t>
+          <t>4,47; 9,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 10,3</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,26; 8,29</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 7,45</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 14,16</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,39</t>
+          <t>1,77; 10,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,16</t>
+          <t>1,14; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,58</t>
+          <t>1,97; 6,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,07</t>
+          <t>2,51; 7,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,35</t>
+          <t>0,69; 3,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,4</t>
+          <t>1,6; 4,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,42</t>
+          <t>2,91; 6,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,33</t>
+          <t>4,55; 9,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 7,46</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 5,11</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 5,63</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 7,75</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,27</t>
+          <t>2,61; 6,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,25</t>
+          <t>3,1; 8,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 11,93</t>
+          <t>4,0; 11,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,92</t>
+          <t>5,77; 10,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,69</t>
+          <t>2,36; 7,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,23</t>
+          <t>4,77; 11,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 6,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 7,57</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 6,58</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 9,77</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 6,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 6,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 6,09</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 10,5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 8,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 7,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 7,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,86; 11,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 7,22</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 6,4</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 6,75</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 10,2</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,4%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31723</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>49892</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19034</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35838</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64099</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>73613</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>133808</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>56942</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>95823</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>123505</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>152842</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10018; 41026</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18208; 52000</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32411; 75202</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7675; 40979</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22388; 60231</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42506; 88355</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50925; 104182</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>97155; 176795</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>36721; 83142</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>70650; 130194</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>90618; 158209</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>108279; 204580</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>62349</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>58542</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71638</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>123737</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>83708</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>80022</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>110508</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74215</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>146058</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>138564</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>182146</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>197951</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41278; 91207</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32999; 112198</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48572; 104646</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>79588; 218851</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>57097; 131454</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57586; 111282</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>83074; 143483</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48456; 108014</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>109943; 197979</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>102888; 200235</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>144207; 230668</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>145914; 303069</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31580</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23849</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39099</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>38611</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14625</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28281</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50990</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60323</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>46204</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>52130</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>90089</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>98935</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12595; 77236</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9623; 61680</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21516; 65738</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20715; 65421</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5294; 28934</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14954; 45774</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33825; 75265</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40723; 87738</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>25538; 110309</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>32860; 90854</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>64796; 126765</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>70027; 133436</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>59696</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>43051</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>71601</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>110291</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31773</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>71862</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>169987</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>74824</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>143463</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36788; 90214</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>26058; 69348</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>42961; 119418</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>79762; 144197</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17370; 55312</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45471; 105695</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>127423; 211392</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>50224; 103668</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>105450; 197828</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>174729</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>157166</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>252983</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>244463</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>204175</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>235110</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>340208</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>419191</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>361341</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>395740</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>593191</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>132674; 229778</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>117701; 226228</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>124281; 206896</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>194748; 356539</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>192826; 301243</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>169145; 250799</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>191981; 280457</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>276701; 408553</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>355860; 501420</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>301077; 440254</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>338401; 467718</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>502552; 705111</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
